--- a/ProgectsUniversity/Пукич/List_Microsoft_Excel_2(2).xlsx
+++ b/ProgectsUniversity/Пукич/List_Microsoft_Excel_2(2).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A0609D-E280-4AF0-B04D-C5ED4F00CDA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC2D76-C610-44AA-8F4F-B25A93A6CBEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="652" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="652" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="РГР" sheetId="10" r:id="rId9"/>
     <sheet name="Лист9" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>X</t>
   </si>
@@ -403,9 +403,6 @@
     <t>– гипотеза  отвергается.</t>
   </si>
   <si>
-    <t>интилект</t>
-  </si>
-  <si>
     <t>Спортивность</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>ВГТУ</t>
   </si>
   <si>
@@ -436,10 +430,6 @@
     <t>ранги</t>
   </si>
   <si>
-    <t>Если G ≥ d , то средние считаем равными.
-Если G &lt; d , то средние считаем неравными (отличаются значимо).</t>
-  </si>
-  <si>
     <t>СРЗНАЧ</t>
   </si>
   <si>
@@ -464,10 +454,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>Если U &gt; d , то СГ о различиях средних отвергается, то есть выборки в среднем одинаковы.
-Если U ≤ d , то нет оснований отвергнуть СГ о различиях средних.</t>
-  </si>
-  <si>
     <t>СГ о различиях средних отвергается</t>
   </si>
   <si>
@@ -480,7 +466,24 @@
     <t>нетипичне сдвиги</t>
   </si>
   <si>
-    <t>6 вар</t>
+    <t>2 вар</t>
+  </si>
+  <si>
+    <t>Интеллект</t>
+  </si>
+  <si>
+    <t>∆* &lt; d</t>
+  </si>
+  <si>
+    <t>– гипотеза не отвергается.</t>
+  </si>
+  <si>
+    <t>Если G ≥ d , то средние считаем равными.
+Если G &lt; d , то средние считаем неравными (отличаются значимо).</t>
+  </si>
+  <si>
+    <t>Если U &gt; d , то СГ о различиях средних отвергается, то есть выборки в среднем одинаковы.
+Если U ≤ d, то нет оснований отвергнуть СГ о различиях средних.</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1109,22 +1112,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1326,10 +1318,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,19 +1424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5785,9 +5776,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5848,7 +5839,7 @@
         <v>0.97979589711327131</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5898,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -5923,7 +5914,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -5948,7 +5939,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -5973,7 +5964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -5998,7 +5989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -6023,7 +6014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6036,7 +6027,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <f>SUM(B5:F5)</f>
@@ -6070,7 +6061,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <f>SUM(B6:F6)</f>
@@ -6104,7 +6095,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <f>SUM(B7:F7)</f>
@@ -6137,7 +6128,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6150,7 +6141,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6172,7 +6163,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -6199,7 +6190,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -6226,7 +6217,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -6244,7 +6235,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -6271,7 +6262,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6293,7 +6284,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -6321,7 +6312,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>B18/B17</f>
         <v>0.57142857142860504</v>
@@ -6343,7 +6334,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6356,7 +6347,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6369,7 +6360,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -6401,7 +6392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -6448,13 +6439,13 @@
       <selection activeCell="D23" sqref="D23:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -6482,7 +6473,7 @@
       </c>
       <c r="J1" s="91"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>26</v>
       </c>
@@ -6510,7 +6501,7 @@
       </c>
       <c r="J2" s="91"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
         <f>A2^2</f>
         <v>676</v>
@@ -6545,7 +6536,7 @@
       </c>
       <c r="J3" s="91"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -6576,7 +6567,7 @@
       </c>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <f>A4*A2</f>
         <v>26</v>
@@ -6611,7 +6602,7 @@
       </c>
       <c r="J5" s="91"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>28</v>
       </c>
@@ -6639,7 +6630,7 @@
       </c>
       <c r="J6" s="91"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="116">
         <v>24</v>
       </c>
@@ -6667,7 +6658,7 @@
       </c>
       <c r="J7" s="91"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="119">
         <f>NORMSDIST((A6-$B$19)/$B$22)-NORMSDIST((A7-$B$19)/$B$22)</f>
         <v>1.6076834671515997E-2</v>
@@ -6702,7 +6693,7 @@
       </c>
       <c r="J8" s="91"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <f>A4/$H$4</f>
         <v>6.6666666666666671E-3</v>
@@ -6740,7 +6731,7 @@
       </c>
       <c r="J9" s="91"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>((A8-A9)^2)/A8</f>
         <v>5.5080035149195124E-3</v>
@@ -6770,8 +6761,8 @@
         <v>1.1523352305659235E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="118" t="s">
         <v>47</v>
       </c>
@@ -6780,7 +6771,7 @@
         <v>39.866666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="117" t="s">
         <v>48</v>
       </c>
@@ -6789,7 +6780,7 @@
         <v>1621.92</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="117" t="s">
         <v>49</v>
       </c>
@@ -6798,7 +6789,7 @@
         <v>32.568888888888978</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="117" t="s">
         <v>50</v>
       </c>
@@ -6807,7 +6798,7 @@
         <v>5.7069158824087269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="120" t="s">
         <v>110</v>
       </c>
@@ -6815,13 +6806,13 @@
         <f>H4*SUM(A11:G11)</f>
         <v>5.2723858194592594</v>
       </c>
-      <c r="D23" s="179" t="s">
+      <c r="D23" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="120" t="s">
         <v>6</v>
       </c>
@@ -6829,11 +6820,11 @@
         <f>CHIINV(0.05,4)</f>
         <v>9.4877290367811575</v>
       </c>
-      <c r="D24" s="179" t="s">
+      <c r="D24" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6852,13 +6843,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -6878,7 +6869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -6898,7 +6889,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -6923,7 +6914,7 @@
         <v>1.9843444494443996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
@@ -6948,7 +6939,7 @@
         <v>1.9788888195862278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -6973,7 +6964,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -6998,7 +6989,7 @@
         <v>2.3978952727983707</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
@@ -7006,7 +6997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -7019,7 +7010,7 @@
         <v>-0.45531406476374031</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7023,7 @@
         <v>3.0706842631218119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
@@ -7059,9 +7050,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -7098,7 +7089,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -7139,7 +7130,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>28</v>
       </c>
@@ -7168,7 +7159,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>33</v>
       </c>
@@ -7202,7 +7193,7 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -7219,7 +7210,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
@@ -7253,7 +7244,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>0</v>
       </c>
@@ -7287,7 +7278,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
         <v>29</v>
       </c>
@@ -7320,7 +7311,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
@@ -7342,7 +7333,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>28</v>
       </c>
@@ -7373,7 +7364,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>30</v>
       </c>
@@ -7404,7 +7395,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>31</v>
       </c>
@@ -7434,7 +7425,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>32</v>
       </c>
@@ -7456,7 +7447,7 @@
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -7482,7 +7473,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
@@ -7513,7 +7504,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
     </row>
-    <row r="16" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
@@ -7543,7 +7534,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
     </row>
-    <row r="17" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
         <v>15</v>
       </c>
@@ -7565,7 +7556,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
     </row>
-    <row r="18" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="50" t="s">
         <v>16</v>
       </c>
@@ -7596,7 +7587,7 @@
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
     </row>
-    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -7622,7 +7613,7 @@
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -7648,7 +7639,7 @@
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -7665,7 +7656,7 @@
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
     </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -7682,7 +7673,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
     </row>
-    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -7699,7 +7690,7 @@
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
     </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -7716,7 +7707,7 @@
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
     </row>
-    <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -7746,9 +7737,9 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -7771,7 +7762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -7795,7 +7786,7 @@
         <v>0.72872871061547573</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>28</v>
       </c>
@@ -7816,7 +7807,7 @@
       </c>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>34</v>
       </c>
@@ -7857,7 +7848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51" t="s">
         <v>35</v>
       </c>
@@ -7898,7 +7889,7 @@
         <v>11.819324169542167</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="54" t="s">
         <v>36</v>
       </c>
@@ -7923,7 +7914,7 @@
         <v>3.5263605246161616</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>33</v>
       </c>
@@ -7948,8 +7939,8 @@
         <v>33.223047801459209</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>37</v>
       </c>
@@ -7974,7 +7965,7 @@
         <v>24.215163256915513</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>38</v>
       </c>
@@ -7999,7 +7990,7 @@
         <v>23.543886690205671</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>29</v>
       </c>
@@ -8024,7 +8015,7 @@
         <v>15.005936009904836</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
         <v>39</v>
       </c>
@@ -8033,7 +8024,7 @@
         <v>7.4265490723973038</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>40</v>
       </c>
@@ -8057,7 +8048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>41</v>
       </c>
@@ -8078,7 +8069,7 @@
         <v>7.4265490723973038</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
         <v>42</v>
       </c>
@@ -8099,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>43</v>
       </c>
@@ -8108,7 +8099,7 @@
         <v>23.543886690205671</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="6">
         <f>$B$9</f>
         <v>12.716019714230496</v>
@@ -8122,7 +8113,7 @@
         <v>7.8320141805054693</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8134,7 @@
         <v>7.4265490723973038</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
         <v>14</v>
       </c>
@@ -8164,7 +8155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>15</v>
       </c>
@@ -8173,7 +8164,7 @@
         <v>6.1743545139603929E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
@@ -8194,7 +8185,7 @@
         <v>24.215163256915513</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" s="9">
         <f>$B$14</f>
         <v>12.407799761395516</v>
@@ -8208,7 +8199,7 @@
         <v>23.543886690205671</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="11">
         <f>$B$10</f>
         <v>7.8320141805054693</v>
@@ -8235,19 +8226,19 @@
       <selection activeCell="E1" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="58"/>
-    <col min="4" max="7" width="13.33203125" style="58" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="58"/>
+    <col min="4" max="7" width="13.28515625" style="58" customWidth="1"/>
     <col min="8" max="8" width="9" style="58" customWidth="1"/>
-    <col min="9" max="10" width="13.33203125" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="58" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="58" customWidth="1"/>
     <col min="13" max="13" width="9" style="58" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="58"/>
+    <col min="14" max="16384" width="8.85546875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="61">
         <v>7</v>
       </c>
@@ -8269,7 +8260,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="62">
         <v>3</v>
       </c>
@@ -8293,7 +8284,7 @@
       </c>
       <c r="G2" s="59"/>
     </row>
-    <row r="3" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="62">
         <v>8</v>
       </c>
@@ -8317,7 +8308,7 @@
       </c>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="62">
         <v>7</v>
       </c>
@@ -8334,7 +8325,7 @@
       </c>
       <c r="G4" s="59"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="62">
         <v>1</v>
       </c>
@@ -8351,7 +8342,7 @@
       </c>
       <c r="G5" s="59"/>
     </row>
-    <row r="6" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="62">
         <v>2</v>
       </c>
@@ -8368,7 +8359,7 @@
       </c>
       <c r="G6" s="59"/>
     </row>
-    <row r="7" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62">
         <v>5</v>
       </c>
@@ -8379,7 +8370,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
     </row>
-    <row r="8" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="62">
         <v>1</v>
       </c>
@@ -8414,7 +8405,7 @@
         <v>3.1737245307923159</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="62">
         <v>6</v>
       </c>
@@ -8441,7 +8432,7 @@
         <v>2.860934606464979</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="62">
         <v>2</v>
       </c>
@@ -8474,7 +8465,7 @@
         <v>2.9628563135986932</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="62">
         <v>7</v>
       </c>
@@ -8503,7 +8494,7 @@
         <v>6.1371436864013065</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="62">
         <v>3</v>
       </c>
@@ -8520,7 +8511,7 @@
       <c r="K12" s="59"/>
       <c r="L12" s="59"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="62">
         <v>5</v>
       </c>
@@ -8541,7 +8532,7 @@
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
     </row>
-    <row r="14" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="62">
         <v>6</v>
       </c>
@@ -8558,7 +8549,7 @@
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="62">
         <v>1</v>
       </c>
@@ -8585,7 +8576,7 @@
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
     </row>
-    <row r="16" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="62">
         <v>7</v>
       </c>
@@ -8605,7 +8596,7 @@
       </c>
       <c r="J16" s="59"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="62">
         <v>2</v>
       </c>
@@ -8616,7 +8607,7 @@
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="62">
         <v>8</v>
       </c>
@@ -8625,7 +8616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="62">
         <v>4</v>
       </c>
@@ -8634,7 +8625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="64">
         <v>6</v>
       </c>
@@ -8656,21 +8647,21 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="58" customWidth="1"/>
-    <col min="2" max="7" width="8.88671875" style="58"/>
-    <col min="8" max="8" width="12.33203125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="58" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="58" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="58" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="58" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="58"/>
-    <col min="15" max="16" width="11.88671875" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="58"/>
+    <col min="1" max="1" width="8.85546875" style="58" customWidth="1"/>
+    <col min="2" max="7" width="8.85546875" style="58"/>
+    <col min="8" max="8" width="12.28515625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="58" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="58"/>
+    <col min="15" max="16" width="11.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
@@ -8700,7 +8691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="60" t="s">
         <v>53</v>
       </c>
@@ -8735,14 +8726,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="153" t="s">
+    <row r="3" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="59"/>
       <c r="G3" s="93" t="s">
         <v>4</v>
@@ -8755,13 +8746,13 @@
         <f>J2-(J1)^2</f>
         <v>2</v>
       </c>
-      <c r="K3" s="156" t="s">
+      <c r="K3" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="158"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
+    </row>
+    <row r="4" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
         <v>6</v>
       </c>
@@ -8788,8 +8779,8 @@
       <c r="L4" s="81"/>
       <c r="M4" s="82"/>
     </row>
-    <row r="5" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>69</v>
       </c>
@@ -8823,7 +8814,7 @@
         <v>7.5426215098271081</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>72</v>
       </c>
@@ -8863,7 +8854,7 @@
         <v>1.8331129326562374</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>70</v>
       </c>
@@ -8900,13 +8891,13 @@
         <f>L7-(L6)^2</f>
         <v>43.222222222220807</v>
       </c>
-      <c r="M8" s="156" t="s">
+      <c r="M8" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="157"/>
-      <c r="O8" s="158"/>
-    </row>
-    <row r="9" spans="1:22" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N8" s="169"/>
+      <c r="O8" s="170"/>
+    </row>
+    <row r="9" spans="1:22" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="101" t="s">
         <v>83</v>
       </c>
@@ -8937,8 +8928,8 @@
       <c r="N9" s="81"/>
       <c r="O9" s="82"/>
     </row>
-    <row r="10" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>76</v>
       </c>
@@ -8978,7 +8969,7 @@
         <v>0.92118392501294311</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="60" t="s">
         <v>77</v>
       </c>
@@ -9020,7 +9011,7 @@
         <v>3.1824463052837091</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>0</v>
       </c>
@@ -9056,13 +9047,13 @@
       </c>
       <c r="L13" s="99"/>
       <c r="M13" s="63"/>
-      <c r="N13" s="156" t="s">
+      <c r="N13" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="157"/>
-      <c r="P13" s="158"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O13" s="169"/>
+      <c r="P13" s="170"/>
+    </row>
+    <row r="14" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9093,7 @@
       <c r="O14" s="81"/>
       <c r="P14" s="82"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H15" s="91"/>
       <c r="I15" s="59"/>
       <c r="J15" s="59"/>
@@ -9110,10 +9101,10 @@
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H16" s="91"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="91"/>
     </row>
   </sheetData>
@@ -9141,14 +9132,14 @@
       <selection activeCell="J14" sqref="J14:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="58"/>
-    <col min="7" max="7" width="17.77734375" style="58" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="58"/>
+    <col min="1" max="6" width="8.85546875" style="58"/>
+    <col min="7" max="7" width="17.7109375" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>117</v>
       </c>
@@ -9172,7 +9163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="117">
         <v>4</v>
       </c>
@@ -9193,7 +9184,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="117">
         <v>6</v>
       </c>
@@ -9214,7 +9205,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="117">
         <v>5</v>
       </c>
@@ -9235,7 +9226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="117">
         <f>A4^2</f>
         <v>25</v>
@@ -9261,7 +9252,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="117">
         <v>20</v>
       </c>
@@ -9285,7 +9276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="62">
         <f>A6/$F$6</f>
         <v>0.13333333333333333</v>
@@ -9314,7 +9305,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="64">
         <f>NORMSDIST((A3-$H$10)/$H$13)-NORMSDIST((A2-$H$10)/$H$13)</f>
         <v>7.7112930191654105E-2</v>
@@ -9340,7 +9331,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" s="127" t="s">
         <v>93</v>
       </c>
@@ -9348,7 +9339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="131">
         <f>((A8-A7)^2)/A8</f>
         <v>4.0988375380851753E-2</v>
@@ -9377,7 +9368,7 @@
         <v>9.3466666666666676</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G11" s="117" t="s">
         <v>48</v>
       </c>
@@ -9386,7 +9377,7 @@
         <v>93.906666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G12" s="117" t="s">
         <v>49</v>
       </c>
@@ -9395,7 +9386,7 @@
         <v>6.5464888888888737</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G13" s="117" t="s">
         <v>50</v>
       </c>
@@ -9404,7 +9395,7 @@
         <v>2.55861073414634</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G14" s="122" t="s">
         <v>110</v>
       </c>
@@ -9412,15 +9403,15 @@
         <f>F6*SUM(A10:E10)</f>
         <v>14.513903085299646</v>
       </c>
-      <c r="J14" s="159" t="s">
+      <c r="J14" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-    </row>
-    <row r="15" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="123" t="s">
         <v>6</v>
       </c>
@@ -9428,13 +9419,13 @@
         <f>CHIINV(0.05,H9-3)</f>
         <v>5.9914645471079817</v>
       </c>
-      <c r="J15" s="159" t="s">
+      <c r="J15" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9449,22 +9440,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E8D7A-1B53-486F-A792-7EDD639857EE}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="B1" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7">
         <v>2</v>
@@ -9473,7 +9464,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
@@ -9488,15 +9479,15 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="12">
         <v>1</v>
@@ -9505,16 +9496,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="12">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13">
         <v>2</v>
       </c>
-      <c r="G2" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -9522,67 +9513,69 @@
         <f>TINV(0.05,4)</f>
         <v>2.7764451051977934</v>
       </c>
-      <c r="C3" s="159" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-    </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="171" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="134">
         <f>1-((6*SUMXMY2(B1:G1,B2:G2))/(I1^3-I1))</f>
-        <v>0.82857142857142851</v>
-      </c>
-      <c r="C4" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="171" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="135">
         <f>B4*(SQRT((I1-2)/(1-B4^2)))</f>
-        <v>2.9598001058630059</v>
-      </c>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-    </row>
-    <row r="6" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.5</v>
+      </c>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+    </row>
+    <row r="6" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="138" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="138"/>
+      <c r="G6" s="138" t="s">
+        <v>128</v>
+      </c>
       <c r="H6" s="138" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="138" t="s">
         <v>71</v>
@@ -9591,28 +9584,28 @@
         <v>71</v>
       </c>
       <c r="M6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T6" s="138" t="s">
-        <v>129</v>
-      </c>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-    </row>
-    <row r="7" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="139">
         <v>1.5</v>
       </c>
@@ -9671,13 +9664,13 @@
         <v>2.1</v>
       </c>
       <c r="T7" s="133">
-        <v>2.4</v>
-      </c>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.8</v>
+      </c>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="142">
         <v>2.2000000000000002</v>
       </c>
@@ -9738,19 +9731,19 @@
       <c r="T8" s="135">
         <v>2</v>
       </c>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="180" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="192" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
@@ -9760,76 +9753,76 @@
       <c r="M9" s="113"/>
       <c r="N9" s="113"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="151" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="150" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="152">
+      <c r="B10" s="151">
         <v>20</v>
       </c>
       <c r="C10" s="113"/>
       <c r="D10" s="113"/>
       <c r="E10" s="113"/>
       <c r="F10" s="113"/>
-      <c r="G10" s="161" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
+      <c r="G10" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
       <c r="L10" s="113"/>
       <c r="M10" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N10" s="172" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="134">
         <v>0.05</v>
       </c>
       <c r="C11" s="113"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="166"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
       <c r="L11" s="113"/>
       <c r="M11" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="160" t="s">
-        <v>147</v>
-      </c>
-      <c r="O11" s="160"/>
-      <c r="P11" s="160"/>
-      <c r="Q11" s="160"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="N11" s="172" t="s">
+        <v>143</v>
+      </c>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="B12" s="145">
         <v>5</v>
       </c>
-      <c r="G12" s="167"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="169"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="179"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="146" t="s">
         <v>6</v>
       </c>
@@ -9837,7 +9830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K14" s="6">
         <f>AVERAGE(A23:B23)</f>
         <v>1.5</v>
@@ -9855,10 +9848,10 @@
         <v>14</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K15" s="11">
         <v>2</v>
       </c>
@@ -9872,35 +9865,35 @@
         <v>5</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="190">
+        <v>129</v>
+      </c>
+      <c r="B16" s="159">
         <v>4</v>
       </c>
-      <c r="C16" s="187">
+      <c r="C16" s="156">
         <v>2</v>
       </c>
-      <c r="D16" s="183">
+      <c r="D16" s="152">
         <v>5</v>
       </c>
-      <c r="E16" s="189">
+      <c r="E16" s="158">
         <v>4</v>
       </c>
-      <c r="F16" s="187">
+      <c r="F16" s="156">
         <v>2</v>
       </c>
-      <c r="G16" s="183">
+      <c r="G16" s="152">
         <v>5</v>
       </c>
-      <c r="H16" s="188">
+      <c r="H16" s="157">
         <v>3</v>
       </c>
-      <c r="I16" s="184">
+      <c r="I16" s="153">
         <v>5</v>
       </c>
       <c r="K16">
@@ -9920,14 +9913,14 @@
         <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="191">
+        <v>130</v>
+      </c>
+      <c r="B17" s="160">
         <v>4</v>
       </c>
       <c r="C17" s="148">
@@ -9936,7 +9929,7 @@
       <c r="D17" s="148">
         <v>3</v>
       </c>
-      <c r="E17" s="185">
+      <c r="E17" s="154">
         <v>5</v>
       </c>
       <c r="F17" s="148">
@@ -9945,10 +9938,10 @@
       <c r="G17" s="148">
         <v>3</v>
       </c>
-      <c r="H17" s="185">
+      <c r="H17" s="154">
         <v>5</v>
       </c>
-      <c r="I17" s="192">
+      <c r="I17" s="161">
         <v>4</v>
       </c>
       <c r="K17">
@@ -9968,19 +9961,19 @@
         <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>77</v>
       </c>
@@ -9988,8 +9981,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -10039,14 +10032,14 @@
         <v>16</v>
       </c>
       <c r="R23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="193">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="162">
         <v>2</v>
       </c>
-      <c r="B24" s="194">
+      <c r="B24" s="163">
         <v>2</v>
       </c>
       <c r="C24" s="148">
@@ -10064,119 +10057,119 @@
       <c r="G24" s="148">
         <v>3</v>
       </c>
-      <c r="H24" s="195">
+      <c r="H24" s="164">
         <v>4</v>
       </c>
-      <c r="I24" s="195">
+      <c r="I24" s="164">
         <v>4</v>
       </c>
-      <c r="J24" s="195">
+      <c r="J24" s="164">
         <v>4</v>
       </c>
-      <c r="K24" s="195">
+      <c r="K24" s="164">
         <v>4</v>
       </c>
-      <c r="L24" s="185">
+      <c r="L24" s="154">
         <v>5</v>
       </c>
-      <c r="M24" s="185">
+      <c r="M24" s="154">
         <v>5</v>
       </c>
-      <c r="N24" s="185">
+      <c r="N24" s="154">
         <v>5</v>
       </c>
-      <c r="O24" s="185">
+      <c r="O24" s="154">
         <v>5</v>
       </c>
-      <c r="P24" s="186">
+      <c r="P24" s="155">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2">
         <f>(K14*K16)+(L14*L16)+(M14*M16)+(N14*N16)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2">
         <f>(K14*K17)+(L14*L17)+(M14*M17)+(N14*N17)</f>
         <v>67</v>
       </c>
-      <c r="I28" s="170" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="172"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I28" s="182" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="184"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2">
         <f>MAX(B27,B28)</f>
         <v>69</v>
       </c>
-      <c r="D29" s="179" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="174"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="175"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="191" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="187"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="2">
         <v>8</v>
       </c>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="174"/>
-      <c r="O30" s="175"/>
-    </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="185"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="187"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2">
         <f>(B21*B21)+(B30*(B30+1)/2)-B29</f>
         <v>31</v>
       </c>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="178"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="149" t="s">
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="190"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>15</v>
       </c>
     </row>
@@ -10193,6 +10186,9 @@
     <mergeCell ref="N10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K14 L14:N14" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10204,9 +10200,9 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10233,7 +10229,7 @@
         <v>0.21992048791976182</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -10260,7 +10256,7 @@
         <v>2.4464923227305375</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
@@ -10292,7 +10288,7 @@
         <v>11.547769745913428</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>87</v>
       </c>
@@ -10324,7 +10320,7 @@
         <v>3.2897331598222657</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
         <v>90</v>
       </c>
@@ -10349,7 +10345,7 @@
         <v>43.207550075646211</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="114" t="s">
         <v>91</v>
       </c>
@@ -10381,7 +10377,7 @@
         <v>0.75270347210098087</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H7" s="4" t="s">
         <v>89</v>
       </c>
@@ -10390,7 +10386,7 @@
         <v>2.3357292281886668</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
@@ -10399,7 +10395,7 @@
         <v>10.336995209859282</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
@@ -10408,17 +10404,17 @@
         <v>4.9525175145722447</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="179" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="191" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="1">
